--- a/examples/sources/data/unsolved/to_schedule/2019-02-20.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-20.xlsx
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>43516</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>43516</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>43516</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>43516</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43516</v>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>43516</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
         <v>43516</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43516</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43516</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
         <v>43516</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2">
         <v>43516</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2">
         <v>43516</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="2">
         <v>43516</v>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
         <v>43516</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43516</v>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="2">
         <v>43516</v>
